--- a/PMCC/outputExcel.xlsx
+++ b/PMCC/outputExcel.xlsx
@@ -35,7 +35,7 @@
     <t>Giờ đi muộn</t>
   </si>
   <si>
-    <t>Pham Duy Tung</t>
+    <t>Phạm Duy Tùng</t>
   </si>
   <si>
     <t>20200573</t>
